--- a/data/trans_orig/DC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DC-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95CC04D3-3B87-45FE-8201-F9474A122B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33184055-7882-4A7B-AB7F-3CC25CE52705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D47EF8DA-9705-407A-9D0D-4E75861E7A2E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CAA8F1ED-5405-4DB8-A07C-29D099CB4500}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="440">
   <si>
     <t>Población con dolor crónico en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -89,1246 +89,1222 @@
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>80,39%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -1337,52 +1313,52 @@
     <t>21,68%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
   </si>
   <si>
     <t>40,65%</t>
   </si>
   <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
   </si>
   <si>
     <t>31,72%</t>
   </si>
   <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
   </si>
   <si>
     <t>59,35%</t>
   </si>
   <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A1B2B9-21C5-44F1-9B71-8461443CD688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE821D-A429-49FB-902D-2301562915CC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2438,7 +2414,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2447,13 +2423,13 @@
         <v>981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2462,13 +2438,13 @@
         <v>981</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2459,13 @@
         <v>9809</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -2498,13 +2474,13 @@
         <v>21444</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -2513,13 +2489,13 @@
         <v>31253</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2510,13 @@
         <v>59099</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -2549,13 +2525,13 @@
         <v>84006</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -2564,13 +2540,13 @@
         <v>143105</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2561,13 @@
         <v>482501</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>351</v>
@@ -2600,13 +2576,13 @@
         <v>369981</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>809</v>
@@ -2615,13 +2591,13 @@
         <v>852482</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -2704,13 +2680,13 @@
         <v>13626</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -2719,13 +2695,13 @@
         <v>13626</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2716,13 @@
         <v>34988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -2755,13 +2731,13 @@
         <v>136417</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>168</v>
@@ -2770,13 +2746,13 @@
         <v>171405</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2767,13 @@
         <v>538745</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>778</v>
@@ -2806,13 +2782,13 @@
         <v>791554</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>1324</v>
@@ -2821,13 +2797,13 @@
         <v>1330299</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2818,13 @@
         <v>2702811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>2372</v>
@@ -2857,28 +2833,28 @@
         <v>2437601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>5005</v>
       </c>
       <c r="N22" s="7">
-        <v>5140411</v>
+        <v>5140412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,7 +2896,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2934,7 +2910,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +2929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF5E568-5809-4627-AFFB-474ED0C70CD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F48863-6237-4F90-8A78-D8B0CEC3DA42}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2970,7 +2946,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3083,7 +3059,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3092,13 +3068,13 @@
         <v>5432</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3113,7 +3089,7 @@
         <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,10 +3104,10 @@
         <v>11763</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>156</v>
@@ -3146,10 +3122,10 @@
         <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3158,13 +3134,13 @@
         <v>60729</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3155,13 @@
         <v>158733</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H6" s="7">
         <v>340</v>
@@ -3194,13 +3170,13 @@
         <v>361948</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M6" s="7">
         <v>489</v>
@@ -3209,13 +3185,13 @@
         <v>520681</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3206,13 @@
         <v>804147</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>857</v>
@@ -3245,13 +3221,13 @@
         <v>921450</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>1605</v>
@@ -3260,13 +3236,13 @@
         <v>1725598</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,7 +3316,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3349,10 +3325,10 @@
         <v>9991</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>182</v>
@@ -3385,7 +3361,7 @@
         <v>7167</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>185</v>
@@ -3418,10 +3394,10 @@
         <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3412,13 @@
         <v>151131</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>264</v>
@@ -3451,13 +3427,13 @@
         <v>286034</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>407</v>
@@ -3466,13 +3442,13 @@
         <v>437165</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3463,13 @@
         <v>1805660</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H12" s="7">
         <v>1316</v>
@@ -3502,13 +3478,13 @@
         <v>1412728</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M12" s="7">
         <v>3023</v>
@@ -3517,13 +3493,13 @@
         <v>3218387</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,7 +3573,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3612,7 +3588,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3621,13 +3597,13 @@
         <v>1053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,7 +3624,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -3657,13 +3633,13 @@
         <v>18240</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -3672,13 +3648,13 @@
         <v>18240</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,10 +3669,10 @@
         <v>24758</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>221</v>
@@ -3759,13 +3735,13 @@
         <v>371770</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
@@ -3774,13 +3750,13 @@
         <v>828193</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3830,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -3863,13 +3839,13 @@
         <v>16476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3878,13 +3854,13 @@
         <v>16476</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,10 +3878,10 @@
         <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -3914,13 +3890,13 @@
         <v>116256</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -3929,13 +3905,13 @@
         <v>135186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3926,13 @@
         <v>334622</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H21" s="7">
         <v>664</v>
@@ -3965,13 +3941,13 @@
         <v>715551</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M21" s="7">
         <v>978</v>
@@ -3980,13 +3956,13 @@
         <v>1050172</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +3977,13 @@
         <v>3066231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>2507</v>
@@ -4016,13 +3992,13 @@
         <v>2705947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>5378</v>
@@ -4031,13 +4007,13 @@
         <v>5772178</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,7 +4069,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4112,7 +4088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA3863-0B73-47D7-B61F-6933B73A39A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72677686-C17C-457C-AB1B-8C676266FC52}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4129,7 +4105,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4242,7 +4218,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4251,13 +4227,13 @@
         <v>3635</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4266,13 +4242,13 @@
         <v>4609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4263,13 @@
         <v>9608</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -4302,13 +4278,13 @@
         <v>46015</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -4317,13 +4293,13 @@
         <v>55623</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4314,13 @@
         <v>107104</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H6" s="7">
         <v>187</v>
@@ -4353,13 +4329,13 @@
         <v>211829</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M6" s="7">
         <v>297</v>
@@ -4368,13 +4344,13 @@
         <v>318933</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4365,13 @@
         <v>636661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>662</v>
@@ -4404,13 +4380,13 @@
         <v>733180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>1303</v>
@@ -4419,13 +4395,13 @@
         <v>1369842</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4508,13 +4484,13 @@
         <v>2014</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4523,13 +4499,13 @@
         <v>2014</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4520,13 @@
         <v>15219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>117</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4562,10 +4538,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -4574,13 +4550,13 @@
         <v>64999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4571,13 @@
         <v>144003</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -4610,13 +4586,13 @@
         <v>264685</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>306</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
         <v>380</v>
@@ -4625,13 +4601,13 @@
         <v>408688</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4622,13 @@
         <v>1917164</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H12" s="7">
         <v>1614</v>
@@ -4661,13 +4637,13 @@
         <v>1671820</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M12" s="7">
         <v>3418</v>
@@ -4676,13 +4652,13 @@
         <v>3588983</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,7 +4732,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4765,13 +4741,13 @@
         <v>928</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4780,13 +4756,13 @@
         <v>928</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>324</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4777,13 @@
         <v>3052</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -4816,13 +4792,13 @@
         <v>12880</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -4831,13 +4807,13 @@
         <v>15932</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4828,13 @@
         <v>41733</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4867,13 +4843,13 @@
         <v>58374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -4882,13 +4858,13 @@
         <v>100106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4879,13 @@
         <v>502102</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H17" s="7">
         <v>457</v>
@@ -4918,13 +4894,13 @@
         <v>476959</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M17" s="7">
         <v>920</v>
@@ -4933,13 +4909,13 @@
         <v>979060</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +4983,13 @@
         <v>974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5022,13 +4998,13 @@
         <v>6577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>323</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5037,13 +5013,13 @@
         <v>7551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5034,13 @@
         <v>27878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -5073,13 +5049,13 @@
         <v>108676</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>352</v>
+        <v>67</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>125</v>
@@ -5088,13 +5064,13 @@
         <v>136554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5085,13 @@
         <v>292839</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H21" s="7">
         <v>488</v>
@@ -5124,13 +5100,13 @@
         <v>534889</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M21" s="7">
         <v>768</v>
@@ -5139,13 +5115,13 @@
         <v>827727</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5136,13 @@
         <v>3055927</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>2733</v>
@@ -5175,13 +5151,13 @@
         <v>2881959</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>5641</v>
@@ -5190,13 +5166,13 @@
         <v>5937885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,7 +5228,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5271,7 +5247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A04617E-AFF8-4409-86BC-6EFC131C1B31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F731C88-23DD-4772-9496-67FFFA4414EA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5288,7 +5264,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5401,7 +5377,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5452,7 +5428,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5497,13 +5473,13 @@
         <v>189853</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H6" s="7">
         <v>807</v>
@@ -5512,13 +5488,13 @@
         <v>462217</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M6" s="7">
         <v>1062</v>
@@ -5527,13 +5503,13 @@
         <v>652070</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5524,13 @@
         <v>351781</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H7" s="7">
         <v>620</v>
@@ -5563,13 +5539,13 @@
         <v>373736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M7" s="7">
         <v>1056</v>
@@ -5578,13 +5554,13 @@
         <v>725516</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,7 +5634,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5709,7 +5685,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5754,13 +5730,13 @@
         <v>430882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H11" s="7">
         <v>1059</v>
@@ -5769,13 +5745,13 @@
         <v>843619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>1509</v>
@@ -5784,13 +5760,13 @@
         <v>1274501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,28 +5781,28 @@
         <v>1731140</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H12" s="7">
         <v>1862</v>
       </c>
       <c r="I12" s="7">
-        <v>1405901</v>
+        <v>1405902</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M12" s="7">
         <v>3404</v>
@@ -5835,13 +5811,13 @@
         <v>3137042</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,7 +5844,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -5915,7 +5891,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5930,7 +5906,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5945,7 +5921,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,7 +5942,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5981,7 +5957,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5996,7 +5972,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +5987,13 @@
         <v>111227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>335</v>
@@ -6026,13 +6002,13 @@
         <v>238526</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>457</v>
@@ -6041,13 +6017,13 @@
         <v>349753</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6038,13 @@
         <v>561812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>669</v>
@@ -6077,13 +6053,13 @@
         <v>475360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>1228</v>
@@ -6092,13 +6068,13 @@
         <v>1037173</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,7 +6148,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6202,7 +6178,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,7 +6199,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6253,7 +6229,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6244,13 @@
         <v>731961</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H21" s="7">
         <v>2201</v>
@@ -6283,13 +6259,13 @@
         <v>1544363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="M21" s="7">
         <v>3028</v>
@@ -6298,13 +6274,13 @@
         <v>2276324</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,16 +6292,16 @@
         <v>2537</v>
       </c>
       <c r="D22" s="7">
-        <v>2644734</v>
+        <v>2644733</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7">
         <v>3151</v>
@@ -6334,28 +6310,28 @@
         <v>2254997</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>5688</v>
       </c>
       <c r="N22" s="7">
-        <v>4899731</v>
+        <v>4899730</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,7 +6343,7 @@
         <v>3364</v>
       </c>
       <c r="D23" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6397,7 +6373,7 @@
         <v>8716</v>
       </c>
       <c r="N23" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -6411,7 +6387,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DC-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33184055-7882-4A7B-AB7F-3CC25CE52705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2907369-D069-4C5E-B1DF-5E8178A5BC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CAA8F1ED-5405-4DB8-A07C-29D099CB4500}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{80D355EC-7A86-4B8B-9E57-E1A246313D6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="436">
   <si>
     <t>Población con dolor crónico en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -89,1068 +89,1065 @@
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
     <t>35,05%</t>
   </si>
   <si>
@@ -1262,9 +1259,6 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
     <t>19,61%</t>
   </si>
   <si>
@@ -1281,12 +1275,6 @@
   </si>
   <si>
     <t>27,43%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
   </si>
   <si>
     <t>86,31%</t>
@@ -1770,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE821D-A429-49FB-902D-2301562915CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0792E6F0-7B9A-43DB-B31D-421F219D67D3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2301,7 +2289,7 @@
         <v>1430</v>
       </c>
       <c r="D12" s="7">
-        <v>1474089</v>
+        <v>1474090</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -2352,7 +2340,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2414,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2423,13 +2411,13 @@
         <v>981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2438,13 +2426,13 @@
         <v>981</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2447,13 @@
         <v>9809</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -2474,13 +2462,13 @@
         <v>21444</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -2489,13 +2477,13 @@
         <v>31253</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2498,13 @@
         <v>59099</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -2525,10 +2513,10 @@
         <v>84006</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>103</v>
@@ -2591,13 +2579,13 @@
         <v>852482</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -2680,13 +2668,13 @@
         <v>13626</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -2695,13 +2683,13 @@
         <v>13626</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2704,13 @@
         <v>34988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -2731,13 +2719,13 @@
         <v>136417</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>168</v>
@@ -2746,13 +2734,13 @@
         <v>171405</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2755,13 @@
         <v>538745</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>778</v>
@@ -2782,13 +2770,13 @@
         <v>791554</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>1324</v>
@@ -2797,13 +2785,13 @@
         <v>1330299</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,16 +2803,16 @@
         <v>2633</v>
       </c>
       <c r="D22" s="7">
-        <v>2702811</v>
+        <v>2702810</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>2372</v>
@@ -2833,13 +2821,13 @@
         <v>2437601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>5005</v>
@@ -2848,13 +2836,13 @@
         <v>5140412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,7 +2854,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2910,7 +2898,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2929,7 +2917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F48863-6237-4F90-8A78-D8B0CEC3DA42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8F74E7-51F3-4D0C-B771-7B79B71E932D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2946,7 +2934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3059,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3068,13 +3056,13 @@
         <v>5432</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3086,10 +3074,10 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3092,13 @@
         <v>11763</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -3119,10 +3107,10 @@
         <v>48965</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>158</v>
@@ -3316,7 +3304,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3328,10 +3316,10 @@
         <v>180</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -3340,13 +3328,13 @@
         <v>9991</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3349,13 @@
         <v>7167</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3376,13 +3364,13 @@
         <v>49051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -3391,13 +3379,13 @@
         <v>56217</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3400,13 @@
         <v>151131</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>264</v>
@@ -3427,13 +3415,13 @@
         <v>286034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>407</v>
@@ -3442,13 +3430,13 @@
         <v>437165</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3451,13 @@
         <v>1805660</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H12" s="7">
         <v>1316</v>
@@ -3478,13 +3466,13 @@
         <v>1412728</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M12" s="7">
         <v>3023</v>
@@ -3493,13 +3481,13 @@
         <v>3218387</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3588,7 +3576,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3597,13 +3585,13 @@
         <v>1053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,7 +3612,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -3633,13 +3621,13 @@
         <v>18240</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -3648,13 +3636,13 @@
         <v>18240</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3657,13 @@
         <v>24758</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -3684,13 +3672,13 @@
         <v>67569</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -3699,13 +3687,13 @@
         <v>92327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3708,13 @@
         <v>456423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>334</v>
@@ -3735,13 +3723,13 @@
         <v>371770</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
@@ -3750,13 +3738,13 @@
         <v>828193</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,7 +3818,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -3839,13 +3827,13 @@
         <v>16476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3854,13 +3842,13 @@
         <v>16476</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3863,13 @@
         <v>18930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -3890,13 +3878,13 @@
         <v>116256</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -3905,13 +3893,13 @@
         <v>135186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3914,13 @@
         <v>334622</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H21" s="7">
         <v>664</v>
@@ -3941,13 +3929,13 @@
         <v>715551</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M21" s="7">
         <v>978</v>
@@ -3956,13 +3944,13 @@
         <v>1050172</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3965,13 @@
         <v>3066231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
         <v>2507</v>
@@ -3992,13 +3980,13 @@
         <v>2705947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
         <v>5378</v>
@@ -4007,13 +3995,13 @@
         <v>5772178</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4057,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4088,7 +4076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72677686-C17C-457C-AB1B-8C676266FC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDF159C-EFED-4242-8EA2-FB4DA8CA4798}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4105,7 +4093,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4218,7 +4206,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4227,7 +4215,7 @@
         <v>3635</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>52</v>
@@ -4242,13 +4230,13 @@
         <v>4609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4251,13 @@
         <v>9608</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -4281,10 +4269,10 @@
         <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -4293,13 +4281,13 @@
         <v>55623</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,7 +4302,7 @@
         <v>107104</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>75</v>
+        <v>273</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>274</v>
@@ -4344,13 +4332,13 @@
         <v>318933</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4353,13 @@
         <v>636661</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>662</v>
@@ -4380,13 +4368,13 @@
         <v>733180</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>1303</v>
@@ -4395,13 +4383,13 @@
         <v>1369842</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,7 +4463,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4484,13 +4472,13 @@
         <v>2014</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4499,13 +4487,13 @@
         <v>2014</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4508,13 @@
         <v>15219</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4538,10 +4526,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -4550,13 +4538,13 @@
         <v>64999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>298</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4559,13 @@
         <v>144003</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -4586,13 +4574,13 @@
         <v>264685</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M11" s="7">
         <v>380</v>
@@ -4601,13 +4589,13 @@
         <v>408688</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4610,13 @@
         <v>1917164</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H12" s="7">
         <v>1614</v>
@@ -4637,13 +4625,13 @@
         <v>1671820</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M12" s="7">
         <v>3418</v>
@@ -4652,13 +4640,13 @@
         <v>3588983</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,7 +4720,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4741,13 +4729,13 @@
         <v>928</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4756,13 +4744,13 @@
         <v>928</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4765,13 @@
         <v>3052</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>154</v>
+        <v>319</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -4792,13 +4780,13 @@
         <v>12880</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>320</v>
+        <v>211</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>321</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -4807,13 +4795,13 @@
         <v>15932</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>325</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4816,13 @@
         <v>41733</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4843,13 +4831,13 @@
         <v>58374</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -4858,13 +4846,13 @@
         <v>100106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4867,13 @@
         <v>502102</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H17" s="7">
         <v>457</v>
@@ -4894,13 +4882,13 @@
         <v>476959</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
         <v>920</v>
@@ -4909,13 +4897,13 @@
         <v>979060</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4971,13 @@
         <v>974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>57</v>
+        <v>342</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4998,13 +4986,13 @@
         <v>6577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5013,13 +5001,13 @@
         <v>7551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5022,13 @@
         <v>27878</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -5049,10 +5037,10 @@
         <v>108676</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>67</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>27</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>347</v>
@@ -5103,10 +5091,10 @@
         <v>354</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="M21" s="7">
         <v>768</v>
@@ -5115,13 +5103,13 @@
         <v>827727</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5124,13 @@
         <v>3055927</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>2733</v>
@@ -5151,13 +5139,13 @@
         <v>2881959</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>5641</v>
@@ -5166,13 +5154,13 @@
         <v>5937885</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,7 +5216,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5247,7 +5235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F731C88-23DD-4772-9496-67FFFA4414EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12B2C3-7217-41F0-8E08-A51926C9C9FB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5264,7 +5252,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5377,7 +5365,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5407,7 +5395,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,7 +5416,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>368</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5458,7 +5446,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,13 +5461,13 @@
         <v>189853</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H6" s="7">
         <v>807</v>
@@ -5488,13 +5476,13 @@
         <v>462217</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M6" s="7">
         <v>1062</v>
@@ -5503,13 +5491,13 @@
         <v>652070</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,13 +5512,13 @@
         <v>351781</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H7" s="7">
         <v>620</v>
@@ -5539,13 +5527,13 @@
         <v>373736</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M7" s="7">
         <v>1056</v>
@@ -5554,13 +5542,13 @@
         <v>725516</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,7 +5622,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5685,7 +5673,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5730,13 +5718,13 @@
         <v>430882</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H11" s="7">
         <v>1059</v>
@@ -5745,13 +5733,13 @@
         <v>843619</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>1509</v>
@@ -5760,13 +5748,13 @@
         <v>1274501</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5769,13 @@
         <v>1731140</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H12" s="7">
         <v>1862</v>
@@ -5796,13 +5784,13 @@
         <v>1405902</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M12" s="7">
         <v>3404</v>
@@ -5811,13 +5799,13 @@
         <v>3137042</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,7 +5879,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5906,7 +5894,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5921,7 +5909,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,7 +5930,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>181</v>
+        <v>368</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5957,7 +5945,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5972,7 +5960,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5975,13 @@
         <v>111227</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>335</v>
@@ -6002,13 +5990,13 @@
         <v>238526</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>457</v>
@@ -6017,13 +6005,13 @@
         <v>349753</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6026,13 @@
         <v>561812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>669</v>
@@ -6053,13 +6041,13 @@
         <v>475360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>1228</v>
@@ -6068,13 +6056,13 @@
         <v>1037173</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,7 +6136,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6178,7 +6166,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6187,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6229,7 +6217,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6232,13 @@
         <v>731961</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H21" s="7">
         <v>2201</v>
@@ -6259,13 +6247,13 @@
         <v>1544363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M21" s="7">
         <v>3028</v>
@@ -6274,13 +6262,13 @@
         <v>2276324</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6283,13 @@
         <v>2644733</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>3151</v>
@@ -6310,13 +6298,13 @@
         <v>2254997</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>5688</v>
@@ -6325,13 +6313,13 @@
         <v>4899730</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6375,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DC-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2907369-D069-4C5E-B1DF-5E8178A5BC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E8C771-FCF7-4B49-9F19-4CEC5F83300C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{80D355EC-7A86-4B8B-9E57-E1A246313D6E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DB5C3C3-8413-4193-B59E-2E9BCD80DECA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="448">
   <si>
     <t>Población con dolor crónico en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,67%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -110,25 +110,25 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,74%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -137,28 +137,28 @@
     <t>26,7%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -167,1132 +167,1168 @@
     <t>72,33%</t>
   </si>
   <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
   </si>
   <si>
     <t>65,44%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>66,72%</t>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -1301,52 +1337,52 @@
     <t>21,68%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
   </si>
   <si>
     <t>40,65%</t>
   </si>
   <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
   </si>
   <si>
     <t>31,72%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
   </si>
   <si>
     <t>59,35%</t>
   </si>
   <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0792E6F0-7B9A-43DB-B31D-421F219D67D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82912E2-D032-4083-834E-E89472064E3C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2289,7 +2325,7 @@
         <v>1430</v>
       </c>
       <c r="D12" s="7">
-        <v>1474090</v>
+        <v>1474089</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -2340,7 +2376,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2432,7 +2468,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2483,13 @@
         <v>9809</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -2462,13 +2498,13 @@
         <v>21444</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -2477,7 +2513,7 @@
         <v>31253</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>97</v>
@@ -2516,10 +2552,10 @@
         <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -2528,13 +2564,13 @@
         <v>143105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2585,13 @@
         <v>482501</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>351</v>
@@ -2564,13 +2600,13 @@
         <v>369981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>809</v>
@@ -2579,13 +2615,13 @@
         <v>852482</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,7 +2695,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -2668,13 +2704,13 @@
         <v>13626</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -2683,10 +2719,10 @@
         <v>13626</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>19</v>
@@ -2704,13 +2740,13 @@
         <v>34988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -2719,13 +2755,13 @@
         <v>136417</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>168</v>
@@ -2734,13 +2770,13 @@
         <v>171405</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2791,13 @@
         <v>538745</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>778</v>
@@ -2770,13 +2806,13 @@
         <v>791554</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>1324</v>
@@ -2785,13 +2821,13 @@
         <v>1330299</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,16 +2839,16 @@
         <v>2633</v>
       </c>
       <c r="D22" s="7">
-        <v>2702810</v>
+        <v>2702811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>2372</v>
@@ -2821,28 +2857,28 @@
         <v>2437601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>5005</v>
       </c>
       <c r="N22" s="7">
-        <v>5140412</v>
+        <v>5140411</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,7 +2890,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2884,7 +2920,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2898,7 +2934,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2917,7 +2953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8F74E7-51F3-4D0C-B771-7B79B71E932D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F82D0D-DF05-49CC-8B8E-9564325D4404}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2934,7 +2970,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3056,13 +3092,13 @@
         <v>5432</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3074,10 +3110,10 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3128,13 @@
         <v>11763</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -3107,13 +3143,13 @@
         <v>48965</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3122,13 +3158,13 @@
         <v>60729</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3179,13 @@
         <v>158733</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H6" s="7">
         <v>340</v>
@@ -3158,13 +3194,13 @@
         <v>361948</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M6" s="7">
         <v>489</v>
@@ -3173,13 +3209,13 @@
         <v>520681</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3230,13 @@
         <v>804147</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>857</v>
@@ -3209,13 +3245,13 @@
         <v>921450</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>1605</v>
@@ -3224,13 +3260,13 @@
         <v>1725598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3349,13 @@
         <v>9991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -3328,13 +3364,13 @@
         <v>9991</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,10 +3388,10 @@
         <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3364,13 +3400,13 @@
         <v>49051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -3379,13 +3415,13 @@
         <v>56217</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3436,13 @@
         <v>151131</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>264</v>
@@ -3415,13 +3451,13 @@
         <v>286034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>407</v>
@@ -3430,13 +3466,13 @@
         <v>437165</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3487,13 @@
         <v>1805660</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H12" s="7">
         <v>1316</v>
@@ -3466,13 +3502,13 @@
         <v>1412728</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M12" s="7">
         <v>3023</v>
@@ -3481,13 +3517,13 @@
         <v>3218387</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,7 +3597,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3576,7 +3612,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3585,13 +3621,13 @@
         <v>1053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3648,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -3621,13 +3657,13 @@
         <v>18240</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -3636,13 +3672,13 @@
         <v>18240</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>214</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3693,13 @@
         <v>24758</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -3672,13 +3708,13 @@
         <v>67569</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -3687,13 +3723,13 @@
         <v>92327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3744,13 @@
         <v>456423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>334</v>
@@ -3723,13 +3759,13 @@
         <v>371770</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
@@ -3738,13 +3774,13 @@
         <v>828193</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -3827,13 +3863,13 @@
         <v>16476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3842,13 +3878,13 @@
         <v>16476</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3899,13 @@
         <v>18930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -3878,13 +3914,13 @@
         <v>116256</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -3893,13 +3929,13 @@
         <v>135186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3950,13 @@
         <v>334622</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H21" s="7">
         <v>664</v>
@@ -3929,13 +3965,13 @@
         <v>715551</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M21" s="7">
         <v>978</v>
@@ -3944,13 +3980,13 @@
         <v>1050172</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +4001,13 @@
         <v>3066231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>2507</v>
@@ -3980,13 +4016,13 @@
         <v>2705947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>5378</v>
@@ -3995,13 +4031,13 @@
         <v>5772178</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,7 +4093,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4076,7 +4112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDF159C-EFED-4242-8EA2-FB4DA8CA4798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3E6D0C-5721-45C8-ABE7-8A297116D433}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4093,7 +4129,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4206,7 +4242,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4215,13 +4251,13 @@
         <v>3635</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4230,7 +4266,7 @@
         <v>4609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
@@ -4251,13 +4287,13 @@
         <v>9608</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -4266,13 +4302,13 @@
         <v>46015</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -4281,13 +4317,13 @@
         <v>55623</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4338,13 @@
         <v>107104</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H6" s="7">
         <v>187</v>
@@ -4317,13 +4353,13 @@
         <v>211829</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
         <v>297</v>
@@ -4332,13 +4368,13 @@
         <v>318933</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4389,13 @@
         <v>636661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>662</v>
@@ -4368,13 +4404,13 @@
         <v>733180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>1303</v>
@@ -4383,13 +4419,13 @@
         <v>1369842</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,7 +4514,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4487,13 +4523,13 @@
         <v>2014</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4544,13 @@
         <v>15219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4526,10 +4562,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -4538,13 +4574,13 @@
         <v>64999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4595,13 @@
         <v>144003</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
         <v>245</v>
@@ -4574,13 +4610,13 @@
         <v>264685</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M11" s="7">
         <v>380</v>
@@ -4589,13 +4625,13 @@
         <v>408688</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4646,13 @@
         <v>1917164</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H12" s="7">
         <v>1614</v>
@@ -4625,13 +4661,13 @@
         <v>1671820</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M12" s="7">
         <v>3418</v>
@@ -4640,13 +4676,13 @@
         <v>3588983</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,7 +4756,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4729,13 +4765,13 @@
         <v>928</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4744,13 +4780,13 @@
         <v>928</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4801,13 @@
         <v>3052</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -4780,13 +4816,13 @@
         <v>12880</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>211</v>
+        <v>326</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -4795,13 +4831,13 @@
         <v>15932</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4852,13 @@
         <v>41733</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4831,13 +4867,13 @@
         <v>58374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -4846,13 +4882,13 @@
         <v>100106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4903,13 @@
         <v>502102</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>457</v>
@@ -4882,13 +4918,13 @@
         <v>476959</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>920</v>
@@ -4897,13 +4933,13 @@
         <v>979060</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +5007,13 @@
         <v>974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>342</v>
+        <v>185</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4986,13 +5022,13 @@
         <v>6577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5001,13 +5037,13 @@
         <v>7551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5058,13 @@
         <v>27878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -5037,13 +5073,13 @@
         <v>108676</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>27</v>
+        <v>353</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M20" s="7">
         <v>125</v>
@@ -5052,13 +5088,13 @@
         <v>136554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5109,13 @@
         <v>292839</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H21" s="7">
         <v>488</v>
@@ -5088,13 +5124,13 @@
         <v>534889</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>362</v>
       </c>
       <c r="M21" s="7">
         <v>768</v>
@@ -5103,13 +5139,13 @@
         <v>827727</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5160,13 @@
         <v>3055927</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H22" s="7">
         <v>2733</v>
@@ -5139,13 +5175,13 @@
         <v>2881959</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>363</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>5641</v>
@@ -5154,13 +5190,13 @@
         <v>5937885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,7 +5252,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5235,7 +5271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12B2C3-7217-41F0-8E08-A51926C9C9FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1E9E83-84F2-4028-B515-0B5C317B9773}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5252,7 +5288,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5365,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5395,7 +5431,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,7 +5452,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5446,7 +5482,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5497,13 @@
         <v>189853</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H6" s="7">
         <v>807</v>
@@ -5476,13 +5512,13 @@
         <v>462217</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>1062</v>
@@ -5491,13 +5527,13 @@
         <v>652070</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,13 +5548,13 @@
         <v>351781</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H7" s="7">
         <v>620</v>
@@ -5527,13 +5563,13 @@
         <v>373736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M7" s="7">
         <v>1056</v>
@@ -5542,13 +5578,13 @@
         <v>725516</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5754,13 @@
         <v>430882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H11" s="7">
         <v>1059</v>
@@ -5733,13 +5769,13 @@
         <v>843619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M11" s="7">
         <v>1509</v>
@@ -5748,13 +5784,13 @@
         <v>1274501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,28 +5805,28 @@
         <v>1731140</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="H12" s="7">
         <v>1862</v>
       </c>
       <c r="I12" s="7">
-        <v>1405902</v>
+        <v>1405901</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="M12" s="7">
         <v>3404</v>
@@ -5799,13 +5835,13 @@
         <v>3137042</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,7 +5868,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -5879,7 +5915,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5894,7 +5930,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5909,7 +5945,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,7 +5966,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5945,7 +5981,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5960,7 +5996,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +6011,13 @@
         <v>111227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>413</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
         <v>335</v>
@@ -5990,13 +6026,13 @@
         <v>238526</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>457</v>
@@ -6005,13 +6041,13 @@
         <v>349753</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6062,13 @@
         <v>561812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>669</v>
@@ -6041,13 +6077,13 @@
         <v>475360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>1228</v>
@@ -6056,13 +6092,13 @@
         <v>1037173</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,7 +6172,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6166,7 +6202,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,7 +6223,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6217,7 +6253,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6268,13 @@
         <v>731961</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="H21" s="7">
         <v>2201</v>
@@ -6247,13 +6283,13 @@
         <v>1544363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="M21" s="7">
         <v>3028</v>
@@ -6262,13 +6298,13 @@
         <v>2276324</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,16 +6316,16 @@
         <v>2537</v>
       </c>
       <c r="D22" s="7">
-        <v>2644733</v>
+        <v>2644734</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="H22" s="7">
         <v>3151</v>
@@ -6298,28 +6334,28 @@
         <v>2254997</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="M22" s="7">
         <v>5688</v>
       </c>
       <c r="N22" s="7">
-        <v>4899730</v>
+        <v>4899731</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +6367,7 @@
         <v>3364</v>
       </c>
       <c r="D23" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6361,7 +6397,7 @@
         <v>8716</v>
       </c>
       <c r="N23" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -6375,7 +6411,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
